--- a/data/georgia_census/guria/ozurgeti/healthcare_staff.xlsx
+++ b/data/georgia_census/guria/ozurgeti/healthcare_staff.xlsx
@@ -1364,13 +1364,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7FC6C0-30F3-4C62-B11C-06DB8049272D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB159A52-F801-46BF-ACBA-340B86F39A38}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF72C4EF-ADA4-400F-BBFF-C31F612B14A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7433ED33-71F6-463C-B7EC-51AE372904E3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6A0BF2-3E9A-428C-A39F-5B294658F947}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2915FE06-E1EF-4798-80D6-E5E5A2EF0D8B}"/>
 </file>